--- a/data/trans_orig/P80_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>21051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12769</v>
+        <v>13200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31463</v>
+        <v>31603</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03638662267553038</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02207118860633595</v>
+        <v>0.02281649010007997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05438425922544089</v>
+        <v>0.05462697981888841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -762,19 +762,19 @@
         <v>5781</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2893</v>
+        <v>2744</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10950</v>
+        <v>10683</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007049997951099798</v>
+        <v>0.007049997951099799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003528011542398999</v>
+        <v>0.003346252384190226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01335513901234421</v>
+        <v>0.0130293317127736</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -783,19 +783,19 @@
         <v>26831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18042</v>
+        <v>18304</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38625</v>
+        <v>40639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01918618152622309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01290111554113989</v>
+        <v>0.01308843584987512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02761958023102279</v>
+        <v>0.02905960428004787</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>557478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>547066</v>
+        <v>546926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>565760</v>
+        <v>565329</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9636133773244698</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9456157407745587</v>
+        <v>0.9453730201811112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9779288113936641</v>
+        <v>0.9771835098999198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1414</v>
@@ -833,19 +833,19 @@
         <v>814161</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>808992</v>
+        <v>809259</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>817049</v>
+        <v>817198</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9929500020489003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9866448609876557</v>
+        <v>0.9869706682872257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9964719884576008</v>
+        <v>0.9966537476158097</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2085</v>
@@ -854,19 +854,19 @@
         <v>1371640</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1359846</v>
+        <v>1357832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1380429</v>
+        <v>1380167</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9808138184737769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9723804197689773</v>
+        <v>0.9709403957199521</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9870988844588601</v>
+        <v>0.9869115641501249</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>48808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33195</v>
+        <v>34259</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67148</v>
+        <v>70850</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02189825694804338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0148935178654656</v>
+        <v>0.01537086521031695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03012677680289897</v>
+        <v>0.03178796051167403</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -979,19 +979,19 @@
         <v>39366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28073</v>
+        <v>27124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54867</v>
+        <v>55129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01816614572950417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01295485397298218</v>
+        <v>0.01251681354604938</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0253194004329131</v>
+        <v>0.02544054217434265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -1000,19 +1000,19 @@
         <v>88174</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67370</v>
+        <v>68969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112199</v>
+        <v>114023</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02005846084953797</v>
+        <v>0.02005846084953798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01532600618948616</v>
+        <v>0.01568966155350526</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02552386919236946</v>
+        <v>0.02593902685376128</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2180035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2161695</v>
+        <v>2157993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2195648</v>
+        <v>2194584</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9781017430519567</v>
+        <v>0.9781017430519563</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698732231971011</v>
+        <v>0.9682120394883259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9851064821345343</v>
+        <v>0.9846291347896831</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2871</v>
@@ -1050,19 +1050,19 @@
         <v>2127618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2112117</v>
+        <v>2111855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2138911</v>
+        <v>2139860</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9818338542704959</v>
+        <v>0.9818338542704956</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.974680599567087</v>
+        <v>0.9745594578256568</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9870451460270179</v>
+        <v>0.9874831864539502</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4829</v>
@@ -1071,19 +1071,19 @@
         <v>4307653</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4283628</v>
+        <v>4281804</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4328457</v>
+        <v>4326858</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9799415391504619</v>
+        <v>0.9799415391504621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9744761308076297</v>
+        <v>0.9740609731462386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9846739938105131</v>
+        <v>0.9843103384464947</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>9213</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4105</v>
+        <v>4317</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16888</v>
+        <v>16918</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01296793763561637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005777807077107692</v>
+        <v>0.006076091589913211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02377078666455616</v>
+        <v>0.02381281573753275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1196,19 +1196,19 @@
         <v>9979</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5660</v>
+        <v>5497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17263</v>
+        <v>16334</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0135930916453923</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007709700811349278</v>
+        <v>0.007487967186694996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02351523514728724</v>
+        <v>0.02224913643608888</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1217,19 +1217,19 @@
         <v>19192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12141</v>
+        <v>12133</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29211</v>
+        <v>29247</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01328563285299373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008404402539494513</v>
+        <v>0.00839898148158561</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02022110327659571</v>
+        <v>0.02024574018907034</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>701255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>693580</v>
+        <v>693550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>706363</v>
+        <v>706151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9870320623643837</v>
+        <v>0.9870320623643835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9762292133354438</v>
+        <v>0.9761871842624672</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9942221929228923</v>
+        <v>0.9939239084100867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>990</v>
@@ -1267,19 +1267,19 @@
         <v>724143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>716859</v>
+        <v>717788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>728462</v>
+        <v>728625</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9864069083546076</v>
+        <v>0.9864069083546078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9764847648527126</v>
+        <v>0.9777508635639114</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9922902991886505</v>
+        <v>0.992512032813305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1661</v>
@@ -1288,19 +1288,19 @@
         <v>1425397</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1415378</v>
+        <v>1415342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1432448</v>
+        <v>1432456</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9867143671470064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9797788967234041</v>
+        <v>0.9797542598109297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9915955974605054</v>
+        <v>0.9916010185184144</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>79072</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60811</v>
+        <v>59756</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104735</v>
+        <v>104796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02247737487107702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01728649024609924</v>
+        <v>0.0169864309201685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0297723972574724</v>
+        <v>0.02979000434650613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1413,19 +1413,19 @@
         <v>55125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42002</v>
+        <v>42512</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71341</v>
+        <v>71380</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01481446289306413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01128769147830787</v>
+        <v>0.0114246565147026</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01917231232621139</v>
+        <v>0.01918285122950678</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>126</v>
@@ -1434,19 +1434,19 @@
         <v>134197</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109862</v>
+        <v>110864</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>162445</v>
+        <v>164063</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01853836372745755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01517666700235676</v>
+        <v>0.01531503872801217</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02244063704805154</v>
+        <v>0.02266414970280991</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3438768</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3413105</v>
+        <v>3413044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3457029</v>
+        <v>3458084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9775226251289229</v>
+        <v>0.977522625128923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9702276027425285</v>
+        <v>0.9702099956534939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9827135097539009</v>
+        <v>0.9830135690798315</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5275</v>
@@ -1484,19 +1484,19 @@
         <v>3665922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3649706</v>
+        <v>3649667</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3679045</v>
+        <v>3678535</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9851855371069358</v>
+        <v>0.9851855371069357</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9808276876737893</v>
+        <v>0.980817148770493</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9887123085216925</v>
+        <v>0.9885753434852971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8575</v>
@@ -1505,19 +1505,19 @@
         <v>7104690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7076442</v>
+        <v>7074824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7129025</v>
+        <v>7128023</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9814616362725425</v>
+        <v>0.9814616362725423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9775593629519485</v>
+        <v>0.9773358502971893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9848233329976432</v>
+        <v>0.9846849612719878</v>
       </c>
     </row>
     <row r="15">
